--- a/po_analysis_by_asin/B083GRVFXN_po_data.xlsx
+++ b/po_analysis_by_asin/B083GRVFXN_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,217 +452,553 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>231</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>357</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>194</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45362</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45369</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45376</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45383</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>508</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45411</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45425</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45446</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45481</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>508</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45488</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45530</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>398</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45537</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45572</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45586</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>108</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45607</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>240</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45614</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45635</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B70" t="n">
         <v>216</v>
       </c>
     </row>
@@ -677,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,97 +1035,193 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>660</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>459</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>395</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>508</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>102</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>652</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>398</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>132</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>250</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45627</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B13" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B25" t="n">
         <v>216</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083GRVFXN_po_data.xlsx
+++ b/po_analysis_by_asin/B083GRVFXN_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1030,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1223,6 +1224,1125 @@
       </c>
       <c r="B25" t="n">
         <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>121</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-82.25860060225422</v>
+      </c>
+      <c r="D2" t="n">
+        <v>309.6237101124069</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>121</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-78.63619191129482</v>
+      </c>
+      <c r="D3" t="n">
+        <v>337.9991507008518</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>122</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-70.55914297052072</v>
+      </c>
+      <c r="D4" t="n">
+        <v>340.9030775801112</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>122</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-79.65618469095149</v>
+      </c>
+      <c r="D5" t="n">
+        <v>338.7536816161659</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>122</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-90.7504312270907</v>
+      </c>
+      <c r="D6" t="n">
+        <v>328.7256828625875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>122</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-76.6377571858342</v>
+      </c>
+      <c r="D7" t="n">
+        <v>308.898420708767</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>122</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-85.09233733881503</v>
+      </c>
+      <c r="D8" t="n">
+        <v>330.2614796803527</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>122</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-84.00809551558042</v>
+      </c>
+      <c r="D9" t="n">
+        <v>317.7692243151095</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>122</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-84.48269973072262</v>
+      </c>
+      <c r="D10" t="n">
+        <v>331.9520558468052</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>123</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-84.23076761233808</v>
+      </c>
+      <c r="D11" t="n">
+        <v>333.6341963773268</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>123</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-80.60773779590696</v>
+      </c>
+      <c r="D12" t="n">
+        <v>330.9653484035785</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>123</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-77.86822596581617</v>
+      </c>
+      <c r="D13" t="n">
+        <v>329.1454590421457</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>123</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-86.93127399171507</v>
+      </c>
+      <c r="D14" t="n">
+        <v>334.2928859868883</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>123</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-80.42068219566839</v>
+      </c>
+      <c r="D15" t="n">
+        <v>333.5770490627845</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>123</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-91.38663106198798</v>
+      </c>
+      <c r="D16" t="n">
+        <v>320.9082214922648</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>123</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-71.32210739565114</v>
+      </c>
+      <c r="D17" t="n">
+        <v>342.3568192507882</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>124</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-85.100955239779</v>
+      </c>
+      <c r="D18" t="n">
+        <v>329.27206413739</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>124</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-77.25671327635919</v>
+      </c>
+      <c r="D19" t="n">
+        <v>316.5255343185956</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>124</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-66.37546689425754</v>
+      </c>
+      <c r="D20" t="n">
+        <v>331.6494675746382</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>124</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-100.168398917165</v>
+      </c>
+      <c r="D21" t="n">
+        <v>327.4111884375754</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>124</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-73.781689187683</v>
+      </c>
+      <c r="D22" t="n">
+        <v>331.1629970382531</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>124</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-99.10098615883284</v>
+      </c>
+      <c r="D23" t="n">
+        <v>334.8243841673545</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>124</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-81.99910008753322</v>
+      </c>
+      <c r="D24" t="n">
+        <v>311.6499313018745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>124</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-84.03627612289866</v>
+      </c>
+      <c r="D25" t="n">
+        <v>325.0505360931293</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>124</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-82.83470334591347</v>
+      </c>
+      <c r="D26" t="n">
+        <v>324.3142765272408</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>125</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-70.75962890981174</v>
+      </c>
+      <c r="D27" t="n">
+        <v>322.5945437153524</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>125</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-70.22473049047416</v>
+      </c>
+      <c r="D28" t="n">
+        <v>334.8373826599922</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>125</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-70.67505929929037</v>
+      </c>
+      <c r="D29" t="n">
+        <v>331.0029132701269</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>125</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-71.67550149772993</v>
+      </c>
+      <c r="D30" t="n">
+        <v>323.5878417157383</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>125</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-62.06500373085046</v>
+      </c>
+      <c r="D31" t="n">
+        <v>330.394384075586</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>125</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-89.64038701354073</v>
+      </c>
+      <c r="D32" t="n">
+        <v>326.576604211434</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>125</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-70.57088901558346</v>
+      </c>
+      <c r="D33" t="n">
+        <v>335.6086281264288</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>125</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-93.73672975140985</v>
+      </c>
+      <c r="D34" t="n">
+        <v>323.588360181679</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>126</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-82.88957602923647</v>
+      </c>
+      <c r="D35" t="n">
+        <v>337.1958900331504</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>126</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-77.83510227385135</v>
+      </c>
+      <c r="D36" t="n">
+        <v>318.8768758237147</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>126</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-86.51203049669762</v>
+      </c>
+      <c r="D37" t="n">
+        <v>336.4253339470947</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>126</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-80.51564576941709</v>
+      </c>
+      <c r="D38" t="n">
+        <v>332.7457766900451</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>126</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-79.88942685875753</v>
+      </c>
+      <c r="D39" t="n">
+        <v>328.6290165099157</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>126</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-89.18831885585861</v>
+      </c>
+      <c r="D40" t="n">
+        <v>329.1217619426961</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>126</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-66.71037493485537</v>
+      </c>
+      <c r="D41" t="n">
+        <v>325.9134617245405</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>126</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-78.65722130363392</v>
+      </c>
+      <c r="D42" t="n">
+        <v>326.8584711804953</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>126</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-86.61528672178963</v>
+      </c>
+      <c r="D43" t="n">
+        <v>319.6498885222162</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>127</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-78.53015311648589</v>
+      </c>
+      <c r="D44" t="n">
+        <v>352.0809927331902</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>127</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-80.4786831843314</v>
+      </c>
+      <c r="D45" t="n">
+        <v>341.9493747589128</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>127</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-73.8652337443404</v>
+      </c>
+      <c r="D46" t="n">
+        <v>333.3700495481942</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>127</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-69.2203168237464</v>
+      </c>
+      <c r="D47" t="n">
+        <v>317.5452429782047</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>127</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-73.52139952982034</v>
+      </c>
+      <c r="D48" t="n">
+        <v>329.1049139198244</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>127</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-77.98054104487638</v>
+      </c>
+      <c r="D49" t="n">
+        <v>332.3754729016367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>127</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-80.46745600779863</v>
+      </c>
+      <c r="D50" t="n">
+        <v>312.0409321309349</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>128</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-80.20095983520116</v>
+      </c>
+      <c r="D51" t="n">
+        <v>331.7348304003558</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>128</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-55.44546389048069</v>
+      </c>
+      <c r="D52" t="n">
+        <v>332.0535247798717</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>128</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-72.5098931458089</v>
+      </c>
+      <c r="D53" t="n">
+        <v>344.697971190452</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>128</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-71.8599565675343</v>
+      </c>
+      <c r="D54" t="n">
+        <v>332.5470227384062</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>128</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-72.45135181790474</v>
+      </c>
+      <c r="D55" t="n">
+        <v>344.900050928595</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>128</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-67.93034494564056</v>
+      </c>
+      <c r="D56" t="n">
+        <v>333.8094440135945</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>128</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-80.46053016574059</v>
+      </c>
+      <c r="D57" t="n">
+        <v>335.5362891454716</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>129</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-80.97584424994636</v>
+      </c>
+      <c r="D58" t="n">
+        <v>347.9046540305912</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>129</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-68.80481909482721</v>
+      </c>
+      <c r="D59" t="n">
+        <v>334.8298250771123</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>129</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-79.60158821050186</v>
+      </c>
+      <c r="D60" t="n">
+        <v>326.2721743730879</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>129</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-82.08773054314992</v>
+      </c>
+      <c r="D61" t="n">
+        <v>315.1368441743171</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>130</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-73.74056746172026</v>
+      </c>
+      <c r="D62" t="n">
+        <v>330.1922175411883</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>130</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-71.7416044942026</v>
+      </c>
+      <c r="D63" t="n">
+        <v>331.1482543207096</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>131</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-75.5914794368291</v>
+      </c>
+      <c r="D64" t="n">
+        <v>347.7031781378753</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-85.50911493183298</v>
+      </c>
+      <c r="D65" t="n">
+        <v>316.4291587953825</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>131</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-79.45133116000653</v>
+      </c>
+      <c r="D66" t="n">
+        <v>333.198989940358</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>131</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-80.22848586383303</v>
+      </c>
+      <c r="D67" t="n">
+        <v>325.7517996782803</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>132</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-78.31814646953062</v>
+      </c>
+      <c r="D68" t="n">
+        <v>333.7220785076565</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>132</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-66.97966407509634</v>
+      </c>
+      <c r="D69" t="n">
+        <v>331.431636322415</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>132</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-74.92580342075803</v>
+      </c>
+      <c r="D70" t="n">
+        <v>343.4569693402465</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>132</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-71.86066277546591</v>
+      </c>
+      <c r="D71" t="n">
+        <v>328.2583151217169</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>132</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-80.22214052001618</v>
+      </c>
+      <c r="D72" t="n">
+        <v>331.6967473341119</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>133</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-91.74538417235561</v>
+      </c>
+      <c r="D73" t="n">
+        <v>333.8624743414553</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>133</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-61.95201817607147</v>
+      </c>
+      <c r="D74" t="n">
+        <v>350.2895913552278</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>133</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-75.93239766120357</v>
+      </c>
+      <c r="D75" t="n">
+        <v>345.030053600871</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>133</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-62.11958287274546</v>
+      </c>
+      <c r="D76" t="n">
+        <v>344.7423141382511</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>133</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-75.48338245968047</v>
+      </c>
+      <c r="D77" t="n">
+        <v>337.5256286870272</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>133</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-92.75224825829805</v>
+      </c>
+      <c r="D78" t="n">
+        <v>342.4323282863716</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083GRVFXN_po_data.xlsx
+++ b/po_analysis_by_asin/B083GRVFXN_po_data.xlsx
@@ -1237,7 +1237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,16 +1256,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1274,12 +1264,6 @@
       <c r="B2" t="n">
         <v>121</v>
       </c>
-      <c r="C2" t="n">
-        <v>-82.25860060225422</v>
-      </c>
-      <c r="D2" t="n">
-        <v>309.6237101124069</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1288,12 +1272,6 @@
       <c r="B3" t="n">
         <v>121</v>
       </c>
-      <c r="C3" t="n">
-        <v>-78.63619191129482</v>
-      </c>
-      <c r="D3" t="n">
-        <v>337.9991507008518</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1302,12 +1280,6 @@
       <c r="B4" t="n">
         <v>122</v>
       </c>
-      <c r="C4" t="n">
-        <v>-70.55914297052072</v>
-      </c>
-      <c r="D4" t="n">
-        <v>340.9030775801112</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1316,12 +1288,6 @@
       <c r="B5" t="n">
         <v>122</v>
       </c>
-      <c r="C5" t="n">
-        <v>-79.65618469095149</v>
-      </c>
-      <c r="D5" t="n">
-        <v>338.7536816161659</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1330,12 +1296,6 @@
       <c r="B6" t="n">
         <v>122</v>
       </c>
-      <c r="C6" t="n">
-        <v>-90.7504312270907</v>
-      </c>
-      <c r="D6" t="n">
-        <v>328.7256828625875</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1344,12 +1304,6 @@
       <c r="B7" t="n">
         <v>122</v>
       </c>
-      <c r="C7" t="n">
-        <v>-76.6377571858342</v>
-      </c>
-      <c r="D7" t="n">
-        <v>308.898420708767</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1358,12 +1312,6 @@
       <c r="B8" t="n">
         <v>122</v>
       </c>
-      <c r="C8" t="n">
-        <v>-85.09233733881503</v>
-      </c>
-      <c r="D8" t="n">
-        <v>330.2614796803527</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1372,12 +1320,6 @@
       <c r="B9" t="n">
         <v>122</v>
       </c>
-      <c r="C9" t="n">
-        <v>-84.00809551558042</v>
-      </c>
-      <c r="D9" t="n">
-        <v>317.7692243151095</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1386,12 +1328,6 @@
       <c r="B10" t="n">
         <v>122</v>
       </c>
-      <c r="C10" t="n">
-        <v>-84.48269973072262</v>
-      </c>
-      <c r="D10" t="n">
-        <v>331.9520558468052</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1400,12 +1336,6 @@
       <c r="B11" t="n">
         <v>123</v>
       </c>
-      <c r="C11" t="n">
-        <v>-84.23076761233808</v>
-      </c>
-      <c r="D11" t="n">
-        <v>333.6341963773268</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1414,12 +1344,6 @@
       <c r="B12" t="n">
         <v>123</v>
       </c>
-      <c r="C12" t="n">
-        <v>-80.60773779590696</v>
-      </c>
-      <c r="D12" t="n">
-        <v>330.9653484035785</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1428,12 +1352,6 @@
       <c r="B13" t="n">
         <v>123</v>
       </c>
-      <c r="C13" t="n">
-        <v>-77.86822596581617</v>
-      </c>
-      <c r="D13" t="n">
-        <v>329.1454590421457</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1442,12 +1360,6 @@
       <c r="B14" t="n">
         <v>123</v>
       </c>
-      <c r="C14" t="n">
-        <v>-86.93127399171507</v>
-      </c>
-      <c r="D14" t="n">
-        <v>334.2928859868883</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1456,12 +1368,6 @@
       <c r="B15" t="n">
         <v>123</v>
       </c>
-      <c r="C15" t="n">
-        <v>-80.42068219566839</v>
-      </c>
-      <c r="D15" t="n">
-        <v>333.5770490627845</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1470,12 +1376,6 @@
       <c r="B16" t="n">
         <v>123</v>
       </c>
-      <c r="C16" t="n">
-        <v>-91.38663106198798</v>
-      </c>
-      <c r="D16" t="n">
-        <v>320.9082214922648</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1484,12 +1384,6 @@
       <c r="B17" t="n">
         <v>123</v>
       </c>
-      <c r="C17" t="n">
-        <v>-71.32210739565114</v>
-      </c>
-      <c r="D17" t="n">
-        <v>342.3568192507882</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1498,12 +1392,6 @@
       <c r="B18" t="n">
         <v>124</v>
       </c>
-      <c r="C18" t="n">
-        <v>-85.100955239779</v>
-      </c>
-      <c r="D18" t="n">
-        <v>329.27206413739</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1512,12 +1400,6 @@
       <c r="B19" t="n">
         <v>124</v>
       </c>
-      <c r="C19" t="n">
-        <v>-77.25671327635919</v>
-      </c>
-      <c r="D19" t="n">
-        <v>316.5255343185956</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1526,12 +1408,6 @@
       <c r="B20" t="n">
         <v>124</v>
       </c>
-      <c r="C20" t="n">
-        <v>-66.37546689425754</v>
-      </c>
-      <c r="D20" t="n">
-        <v>331.6494675746382</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1540,12 +1416,6 @@
       <c r="B21" t="n">
         <v>124</v>
       </c>
-      <c r="C21" t="n">
-        <v>-100.168398917165</v>
-      </c>
-      <c r="D21" t="n">
-        <v>327.4111884375754</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1554,12 +1424,6 @@
       <c r="B22" t="n">
         <v>124</v>
       </c>
-      <c r="C22" t="n">
-        <v>-73.781689187683</v>
-      </c>
-      <c r="D22" t="n">
-        <v>331.1629970382531</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1568,12 +1432,6 @@
       <c r="B23" t="n">
         <v>124</v>
       </c>
-      <c r="C23" t="n">
-        <v>-99.10098615883284</v>
-      </c>
-      <c r="D23" t="n">
-        <v>334.8243841673545</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1582,12 +1440,6 @@
       <c r="B24" t="n">
         <v>124</v>
       </c>
-      <c r="C24" t="n">
-        <v>-81.99910008753322</v>
-      </c>
-      <c r="D24" t="n">
-        <v>311.6499313018745</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1596,12 +1448,6 @@
       <c r="B25" t="n">
         <v>124</v>
       </c>
-      <c r="C25" t="n">
-        <v>-84.03627612289866</v>
-      </c>
-      <c r="D25" t="n">
-        <v>325.0505360931293</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1610,12 +1456,6 @@
       <c r="B26" t="n">
         <v>124</v>
       </c>
-      <c r="C26" t="n">
-        <v>-82.83470334591347</v>
-      </c>
-      <c r="D26" t="n">
-        <v>324.3142765272408</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1624,12 +1464,6 @@
       <c r="B27" t="n">
         <v>125</v>
       </c>
-      <c r="C27" t="n">
-        <v>-70.75962890981174</v>
-      </c>
-      <c r="D27" t="n">
-        <v>322.5945437153524</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1638,12 +1472,6 @@
       <c r="B28" t="n">
         <v>125</v>
       </c>
-      <c r="C28" t="n">
-        <v>-70.22473049047416</v>
-      </c>
-      <c r="D28" t="n">
-        <v>334.8373826599922</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1652,12 +1480,6 @@
       <c r="B29" t="n">
         <v>125</v>
       </c>
-      <c r="C29" t="n">
-        <v>-70.67505929929037</v>
-      </c>
-      <c r="D29" t="n">
-        <v>331.0029132701269</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1666,12 +1488,6 @@
       <c r="B30" t="n">
         <v>125</v>
       </c>
-      <c r="C30" t="n">
-        <v>-71.67550149772993</v>
-      </c>
-      <c r="D30" t="n">
-        <v>323.5878417157383</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1680,12 +1496,6 @@
       <c r="B31" t="n">
         <v>125</v>
       </c>
-      <c r="C31" t="n">
-        <v>-62.06500373085046</v>
-      </c>
-      <c r="D31" t="n">
-        <v>330.394384075586</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1694,12 +1504,6 @@
       <c r="B32" t="n">
         <v>125</v>
       </c>
-      <c r="C32" t="n">
-        <v>-89.64038701354073</v>
-      </c>
-      <c r="D32" t="n">
-        <v>326.576604211434</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1708,12 +1512,6 @@
       <c r="B33" t="n">
         <v>125</v>
       </c>
-      <c r="C33" t="n">
-        <v>-70.57088901558346</v>
-      </c>
-      <c r="D33" t="n">
-        <v>335.6086281264288</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1722,12 +1520,6 @@
       <c r="B34" t="n">
         <v>125</v>
       </c>
-      <c r="C34" t="n">
-        <v>-93.73672975140985</v>
-      </c>
-      <c r="D34" t="n">
-        <v>323.588360181679</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1736,12 +1528,6 @@
       <c r="B35" t="n">
         <v>126</v>
       </c>
-      <c r="C35" t="n">
-        <v>-82.88957602923647</v>
-      </c>
-      <c r="D35" t="n">
-        <v>337.1958900331504</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1750,12 +1536,6 @@
       <c r="B36" t="n">
         <v>126</v>
       </c>
-      <c r="C36" t="n">
-        <v>-77.83510227385135</v>
-      </c>
-      <c r="D36" t="n">
-        <v>318.8768758237147</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1764,12 +1544,6 @@
       <c r="B37" t="n">
         <v>126</v>
       </c>
-      <c r="C37" t="n">
-        <v>-86.51203049669762</v>
-      </c>
-      <c r="D37" t="n">
-        <v>336.4253339470947</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1778,12 +1552,6 @@
       <c r="B38" t="n">
         <v>126</v>
       </c>
-      <c r="C38" t="n">
-        <v>-80.51564576941709</v>
-      </c>
-      <c r="D38" t="n">
-        <v>332.7457766900451</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1792,12 +1560,6 @@
       <c r="B39" t="n">
         <v>126</v>
       </c>
-      <c r="C39" t="n">
-        <v>-79.88942685875753</v>
-      </c>
-      <c r="D39" t="n">
-        <v>328.6290165099157</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1806,12 +1568,6 @@
       <c r="B40" t="n">
         <v>126</v>
       </c>
-      <c r="C40" t="n">
-        <v>-89.18831885585861</v>
-      </c>
-      <c r="D40" t="n">
-        <v>329.1217619426961</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1820,12 +1576,6 @@
       <c r="B41" t="n">
         <v>126</v>
       </c>
-      <c r="C41" t="n">
-        <v>-66.71037493485537</v>
-      </c>
-      <c r="D41" t="n">
-        <v>325.9134617245405</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1834,12 +1584,6 @@
       <c r="B42" t="n">
         <v>126</v>
       </c>
-      <c r="C42" t="n">
-        <v>-78.65722130363392</v>
-      </c>
-      <c r="D42" t="n">
-        <v>326.8584711804953</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1848,12 +1592,6 @@
       <c r="B43" t="n">
         <v>126</v>
       </c>
-      <c r="C43" t="n">
-        <v>-86.61528672178963</v>
-      </c>
-      <c r="D43" t="n">
-        <v>319.6498885222162</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1862,12 +1600,6 @@
       <c r="B44" t="n">
         <v>127</v>
       </c>
-      <c r="C44" t="n">
-        <v>-78.53015311648589</v>
-      </c>
-      <c r="D44" t="n">
-        <v>352.0809927331902</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1876,12 +1608,6 @@
       <c r="B45" t="n">
         <v>127</v>
       </c>
-      <c r="C45" t="n">
-        <v>-80.4786831843314</v>
-      </c>
-      <c r="D45" t="n">
-        <v>341.9493747589128</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1890,12 +1616,6 @@
       <c r="B46" t="n">
         <v>127</v>
       </c>
-      <c r="C46" t="n">
-        <v>-73.8652337443404</v>
-      </c>
-      <c r="D46" t="n">
-        <v>333.3700495481942</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1904,12 +1624,6 @@
       <c r="B47" t="n">
         <v>127</v>
       </c>
-      <c r="C47" t="n">
-        <v>-69.2203168237464</v>
-      </c>
-      <c r="D47" t="n">
-        <v>317.5452429782047</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1918,12 +1632,6 @@
       <c r="B48" t="n">
         <v>127</v>
       </c>
-      <c r="C48" t="n">
-        <v>-73.52139952982034</v>
-      </c>
-      <c r="D48" t="n">
-        <v>329.1049139198244</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1932,12 +1640,6 @@
       <c r="B49" t="n">
         <v>127</v>
       </c>
-      <c r="C49" t="n">
-        <v>-77.98054104487638</v>
-      </c>
-      <c r="D49" t="n">
-        <v>332.3754729016367</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1946,12 +1648,6 @@
       <c r="B50" t="n">
         <v>127</v>
       </c>
-      <c r="C50" t="n">
-        <v>-80.46745600779863</v>
-      </c>
-      <c r="D50" t="n">
-        <v>312.0409321309349</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1960,12 +1656,6 @@
       <c r="B51" t="n">
         <v>128</v>
       </c>
-      <c r="C51" t="n">
-        <v>-80.20095983520116</v>
-      </c>
-      <c r="D51" t="n">
-        <v>331.7348304003558</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1974,12 +1664,6 @@
       <c r="B52" t="n">
         <v>128</v>
       </c>
-      <c r="C52" t="n">
-        <v>-55.44546389048069</v>
-      </c>
-      <c r="D52" t="n">
-        <v>332.0535247798717</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1988,12 +1672,6 @@
       <c r="B53" t="n">
         <v>128</v>
       </c>
-      <c r="C53" t="n">
-        <v>-72.5098931458089</v>
-      </c>
-      <c r="D53" t="n">
-        <v>344.697971190452</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2002,12 +1680,6 @@
       <c r="B54" t="n">
         <v>128</v>
       </c>
-      <c r="C54" t="n">
-        <v>-71.8599565675343</v>
-      </c>
-      <c r="D54" t="n">
-        <v>332.5470227384062</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2016,12 +1688,6 @@
       <c r="B55" t="n">
         <v>128</v>
       </c>
-      <c r="C55" t="n">
-        <v>-72.45135181790474</v>
-      </c>
-      <c r="D55" t="n">
-        <v>344.900050928595</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2030,12 +1696,6 @@
       <c r="B56" t="n">
         <v>128</v>
       </c>
-      <c r="C56" t="n">
-        <v>-67.93034494564056</v>
-      </c>
-      <c r="D56" t="n">
-        <v>333.8094440135945</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2044,12 +1704,6 @@
       <c r="B57" t="n">
         <v>128</v>
       </c>
-      <c r="C57" t="n">
-        <v>-80.46053016574059</v>
-      </c>
-      <c r="D57" t="n">
-        <v>335.5362891454716</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2058,12 +1712,6 @@
       <c r="B58" t="n">
         <v>129</v>
       </c>
-      <c r="C58" t="n">
-        <v>-80.97584424994636</v>
-      </c>
-      <c r="D58" t="n">
-        <v>347.9046540305912</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2072,12 +1720,6 @@
       <c r="B59" t="n">
         <v>129</v>
       </c>
-      <c r="C59" t="n">
-        <v>-68.80481909482721</v>
-      </c>
-      <c r="D59" t="n">
-        <v>334.8298250771123</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2086,12 +1728,6 @@
       <c r="B60" t="n">
         <v>129</v>
       </c>
-      <c r="C60" t="n">
-        <v>-79.60158821050186</v>
-      </c>
-      <c r="D60" t="n">
-        <v>326.2721743730879</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2100,12 +1736,6 @@
       <c r="B61" t="n">
         <v>129</v>
       </c>
-      <c r="C61" t="n">
-        <v>-82.08773054314992</v>
-      </c>
-      <c r="D61" t="n">
-        <v>315.1368441743171</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2114,12 +1744,6 @@
       <c r="B62" t="n">
         <v>130</v>
       </c>
-      <c r="C62" t="n">
-        <v>-73.74056746172026</v>
-      </c>
-      <c r="D62" t="n">
-        <v>330.1922175411883</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2128,12 +1752,6 @@
       <c r="B63" t="n">
         <v>130</v>
       </c>
-      <c r="C63" t="n">
-        <v>-71.7416044942026</v>
-      </c>
-      <c r="D63" t="n">
-        <v>331.1482543207096</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2142,12 +1760,6 @@
       <c r="B64" t="n">
         <v>131</v>
       </c>
-      <c r="C64" t="n">
-        <v>-75.5914794368291</v>
-      </c>
-      <c r="D64" t="n">
-        <v>347.7031781378753</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2156,12 +1768,6 @@
       <c r="B65" t="n">
         <v>131</v>
       </c>
-      <c r="C65" t="n">
-        <v>-85.50911493183298</v>
-      </c>
-      <c r="D65" t="n">
-        <v>316.4291587953825</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2170,12 +1776,6 @@
       <c r="B66" t="n">
         <v>131</v>
       </c>
-      <c r="C66" t="n">
-        <v>-79.45133116000653</v>
-      </c>
-      <c r="D66" t="n">
-        <v>333.198989940358</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2184,12 +1784,6 @@
       <c r="B67" t="n">
         <v>131</v>
       </c>
-      <c r="C67" t="n">
-        <v>-80.22848586383303</v>
-      </c>
-      <c r="D67" t="n">
-        <v>325.7517996782803</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2198,12 +1792,6 @@
       <c r="B68" t="n">
         <v>132</v>
       </c>
-      <c r="C68" t="n">
-        <v>-78.31814646953062</v>
-      </c>
-      <c r="D68" t="n">
-        <v>333.7220785076565</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2212,12 +1800,6 @@
       <c r="B69" t="n">
         <v>132</v>
       </c>
-      <c r="C69" t="n">
-        <v>-66.97966407509634</v>
-      </c>
-      <c r="D69" t="n">
-        <v>331.431636322415</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2226,12 +1808,6 @@
       <c r="B70" t="n">
         <v>132</v>
       </c>
-      <c r="C70" t="n">
-        <v>-74.92580342075803</v>
-      </c>
-      <c r="D70" t="n">
-        <v>343.4569693402465</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2240,12 +1816,6 @@
       <c r="B71" t="n">
         <v>132</v>
       </c>
-      <c r="C71" t="n">
-        <v>-71.86066277546591</v>
-      </c>
-      <c r="D71" t="n">
-        <v>328.2583151217169</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2254,12 +1824,6 @@
       <c r="B72" t="n">
         <v>132</v>
       </c>
-      <c r="C72" t="n">
-        <v>-80.22214052001618</v>
-      </c>
-      <c r="D72" t="n">
-        <v>331.6967473341119</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2268,12 +1832,6 @@
       <c r="B73" t="n">
         <v>133</v>
       </c>
-      <c r="C73" t="n">
-        <v>-91.74538417235561</v>
-      </c>
-      <c r="D73" t="n">
-        <v>333.8624743414553</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2282,12 +1840,6 @@
       <c r="B74" t="n">
         <v>133</v>
       </c>
-      <c r="C74" t="n">
-        <v>-61.95201817607147</v>
-      </c>
-      <c r="D74" t="n">
-        <v>350.2895913552278</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2296,12 +1848,6 @@
       <c r="B75" t="n">
         <v>133</v>
       </c>
-      <c r="C75" t="n">
-        <v>-75.93239766120357</v>
-      </c>
-      <c r="D75" t="n">
-        <v>345.030053600871</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2310,12 +1856,6 @@
       <c r="B76" t="n">
         <v>133</v>
       </c>
-      <c r="C76" t="n">
-        <v>-62.11958287274546</v>
-      </c>
-      <c r="D76" t="n">
-        <v>344.7423141382511</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2324,12 +1864,6 @@
       <c r="B77" t="n">
         <v>133</v>
       </c>
-      <c r="C77" t="n">
-        <v>-75.48338245968047</v>
-      </c>
-      <c r="D77" t="n">
-        <v>337.5256286870272</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2337,12 +1871,6 @@
       </c>
       <c r="B78" t="n">
         <v>133</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-92.75224825829805</v>
-      </c>
-      <c r="D78" t="n">
-        <v>342.4323282863716</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083GRVFXN_po_data.xlsx
+++ b/po_analysis_by_asin/B083GRVFXN_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,6 +1003,22 @@
         <v>216</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1014,7 +1030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1226,6 +1242,14 @@
         <v>216</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1237,7 +1261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,7 +1286,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>121</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
@@ -1270,7 +1294,7 @@
         <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>121</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1278,7 +1302,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
@@ -1286,7 +1310,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>122</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
@@ -1294,7 +1318,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
@@ -1302,7 +1326,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
@@ -1310,7 +1334,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -1318,7 +1342,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
@@ -1326,7 +1350,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1334,7 +1358,7 @@
         <v>45032.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>123</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
@@ -1342,7 +1366,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -1350,7 +1374,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>123</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1358,7 +1382,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>123</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -1366,7 +1390,7 @@
         <v>45074.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -1374,7 +1398,7 @@
         <v>45081.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
@@ -1382,7 +1406,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>123</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -1390,7 +1414,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>124</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -1398,7 +1422,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>124</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -1406,7 +1430,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -1414,7 +1438,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>124</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
@@ -1422,7 +1446,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>124</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
@@ -1430,7 +1454,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
@@ -1438,7 +1462,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>124</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -1446,7 +1470,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>124</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -1454,7 +1478,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>124</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27">
@@ -1462,7 +1486,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>125</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28">
@@ -1470,7 +1494,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>125</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29">
@@ -1478,7 +1502,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
@@ -1486,7 +1510,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1494,7 +1518,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -1502,7 +1526,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
@@ -1510,7 +1534,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>125</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34">
@@ -1518,7 +1542,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>125</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35">
@@ -1526,7 +1550,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>126</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -1534,7 +1558,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1542,7 +1566,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -1550,7 +1574,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -1558,7 +1582,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40">
@@ -1566,7 +1590,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -1574,7 +1598,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>126</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
@@ -1582,7 +1606,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -1590,7 +1614,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>126</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44">
@@ -1598,7 +1622,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>127</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45">
@@ -1606,7 +1630,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>127</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46">
@@ -1614,7 +1638,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>127</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
@@ -1622,7 +1646,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>127</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -1630,7 +1654,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49">
@@ -1638,7 +1662,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50">
@@ -1646,7 +1670,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51">
@@ -1654,7 +1678,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52">
@@ -1662,7 +1686,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -1670,7 +1694,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54">
@@ -1678,7 +1702,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -1686,7 +1710,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -1694,7 +1718,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -1702,7 +1726,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58">
@@ -1710,7 +1734,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
@@ -1718,7 +1742,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>129</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
@@ -1726,7 +1750,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
@@ -1734,7 +1758,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>129</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62">
@@ -1742,7 +1766,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>130</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63">
@@ -1750,7 +1774,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
@@ -1758,7 +1782,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>131</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65">
@@ -1766,7 +1790,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -1774,7 +1798,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>131</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67">
@@ -1782,7 +1806,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1790,7 +1814,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69">
@@ -1798,7 +1822,7 @@
         <v>45620.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70">
@@ -1806,44 +1830,44 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>132</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>132</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>133</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>133</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B75" t="n">
         <v>133</v>
@@ -1851,26 +1875,42 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>133</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B79" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
